--- a/data/tiering.xlsx
+++ b/data/tiering.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Antonella\Desktop\bbdataeng\bb4FAIR\survey_shiny\bb4FAIR_app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/federica/Documents/GitHub/BB4FAIR/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB7D66B9-986B-498F-97C1-DB95B856AECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D108BDAF-2646-AD48-9B63-F404EF9C088F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14140" yWindow="-21600" windowWidth="19000" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="total_score" sheetId="1" r:id="rId1"/>
@@ -125,11 +125,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -423,16 +424,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P48"/>
+  <dimension ref="A1:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -482,7 +485,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -532,7 +535,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -582,7 +585,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -632,7 +635,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -682,7 +685,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -732,7 +735,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -782,12 +785,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -805,7 +808,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -814,13 +817,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -829,18 +832,18 @@
         <v>0</v>
       </c>
       <c r="P8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -849,40 +852,40 @@
         <v>0</v>
       </c>
       <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
         <v>8</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -890,19 +893,19 @@
         <v>1</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -911,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -932,45 +935,45 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>4</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -979,18 +982,18 @@
         <v>0</v>
       </c>
       <c r="P11">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -999,13 +1002,13 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -1020,19 +1023,19 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N12">
         <v>1</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P12">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1040,34 +1043,34 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>2</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13">
         <v>3</v>
@@ -1076,13 +1079,13 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P13">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1093,22 +1096,22 @@
         <v>4</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>2</v>
@@ -1123,33 +1126,33 @@
         <v>3</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1164,25 +1167,25 @@
         <v>2</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N15">
         <v>1</v>
       </c>
       <c r="O15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1190,34 +1193,34 @@
         <v>1</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>3</v>
@@ -1226,63 +1229,63 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>3</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
         <v>8</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>2</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>2</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>3</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1290,16 +1293,16 @@
         <v>1</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1308,16 +1311,16 @@
         <v>2</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>3</v>
@@ -1329,10 +1332,10 @@
         <v>0</v>
       </c>
       <c r="P18">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1340,7 +1343,7 @@
         <v>1</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1349,45 +1352,45 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -1396,7 +1399,7 @@
         <v>3</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1405,22 +1408,22 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>2</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1429,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1443,28 +1446,28 @@
         <v>4</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1473,36 +1476,36 @@
         <v>3</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22">
         <v>2</v>
@@ -1511,10 +1514,10 @@
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1529,10 +1532,10 @@
         <v>0</v>
       </c>
       <c r="P22">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1540,49 +1543,49 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>3</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1593,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1611,28 +1614,28 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24">
         <v>3</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1640,25 +1643,25 @@
         <v>1</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
         <v>2</v>
@@ -1670,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1679,10 +1682,10 @@
         <v>0</v>
       </c>
       <c r="P25">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1693,10 +1696,10 @@
         <v>4</v>
       </c>
       <c r="D26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
         <v>8</v>
@@ -1705,22 +1708,22 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1729,27 +1732,27 @@
         <v>0</v>
       </c>
       <c r="P26">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27">
         <v>4</v>
       </c>
       <c r="D27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E27">
         <v>0</v>
       </c>
       <c r="F27">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -1758,7 +1761,7 @@
         <v>2</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -1773,33 +1776,33 @@
         <v>3</v>
       </c>
       <c r="N27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27">
         <v>0</v>
       </c>
       <c r="P27">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C28">
         <v>4</v>
       </c>
       <c r="D28">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -1814,7 +1817,7 @@
         <v>2</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -1823,54 +1826,54 @@
         <v>3</v>
       </c>
       <c r="N28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28">
         <v>0</v>
       </c>
       <c r="P28">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L29">
         <v>0</v>
       </c>
       <c r="M29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1879,10 +1882,10 @@
         <v>0</v>
       </c>
       <c r="P29">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1893,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1911,13 +1914,13 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K30">
         <v>2</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30">
         <v>3</v>
@@ -1929,10 +1932,10 @@
         <v>0</v>
       </c>
       <c r="P30">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1943,7 +1946,7 @@
         <v>4</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -1955,10 +1958,10 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <v>2</v>
@@ -1970,19 +1973,19 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31">
         <v>0</v>
       </c>
       <c r="P31">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1999,19 +2002,19 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32">
         <v>2</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -2020,30 +2023,30 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32">
         <v>0</v>
       </c>
       <c r="P32">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C33">
         <v>4</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2058,7 +2061,7 @@
         <v>2</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -2073,21 +2076,21 @@
         <v>3</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33">
         <v>0</v>
       </c>
       <c r="P33">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34">
         <v>4</v>
@@ -2096,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -2114,7 +2117,7 @@
         <v>2</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -2129,27 +2132,27 @@
         <v>0</v>
       </c>
       <c r="P34">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35">
         <v>4</v>
       </c>
       <c r="D35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G35">
         <v>0</v>
@@ -2161,16 +2164,16 @@
         <v>1</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
       <c r="M35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2179,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P35">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2193,13 +2196,13 @@
         <v>0</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G36">
         <v>0</v>
@@ -2208,31 +2211,31 @@
         <v>2</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L36">
         <v>0</v>
       </c>
       <c r="M36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O36">
         <v>0</v>
       </c>
       <c r="P36">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2240,37 +2243,37 @@
         <v>1</v>
       </c>
       <c r="C37">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <v>0</v>
       </c>
       <c r="J37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L37">
         <v>0</v>
       </c>
       <c r="M37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2279,10 +2282,10 @@
         <v>0</v>
       </c>
       <c r="P37">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2293,7 +2296,7 @@
         <v>4</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2308,10 +2311,10 @@
         <v>2</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -2320,519 +2323,22 @@
         <v>0</v>
       </c>
       <c r="M38">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O38">
         <v>0</v>
       </c>
       <c r="P38">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39">
-        <v>4</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-      <c r="H39">
-        <v>2</v>
-      </c>
-      <c r="I39">
-        <v>1</v>
-      </c>
-      <c r="J39">
-        <v>2</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>3</v>
-      </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <v>4</v>
-      </c>
-      <c r="D40">
-        <v>3</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>2</v>
-      </c>
-      <c r="I40">
-        <v>1</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>3</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41">
-        <v>4</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>2</v>
-      </c>
-      <c r="I41">
-        <v>1</v>
-      </c>
-      <c r="J41">
-        <v>2</v>
-      </c>
-      <c r="K41">
-        <v>2</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>3</v>
-      </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>1</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>2</v>
-      </c>
-      <c r="N42">
-        <v>0</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="C43">
-        <v>4</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>1</v>
-      </c>
-      <c r="H43">
-        <v>2</v>
-      </c>
-      <c r="I43">
-        <v>1</v>
-      </c>
-      <c r="J43">
-        <v>2</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43">
-        <v>3</v>
-      </c>
-      <c r="N43">
-        <v>0</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44">
-        <v>4</v>
-      </c>
-      <c r="D44">
-        <v>3</v>
-      </c>
-      <c r="E44">
-        <v>1</v>
-      </c>
-      <c r="F44">
-        <v>8</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>2</v>
-      </c>
-      <c r="I44">
-        <v>1</v>
-      </c>
-      <c r="J44">
-        <v>2</v>
-      </c>
-      <c r="K44">
-        <v>2</v>
-      </c>
-      <c r="L44">
-        <v>1</v>
-      </c>
-      <c r="M44">
-        <v>3</v>
-      </c>
-      <c r="N44">
-        <v>1</v>
-      </c>
-      <c r="O44">
-        <v>0</v>
-      </c>
-      <c r="P44">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="C45">
-        <v>4</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>8</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>2</v>
-      </c>
-      <c r="I45">
-        <v>1</v>
-      </c>
-      <c r="J45">
-        <v>2</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
-      </c>
-      <c r="M45">
-        <v>3</v>
-      </c>
-      <c r="N45">
-        <v>1</v>
-      </c>
-      <c r="O45">
-        <v>0</v>
-      </c>
-      <c r="P45">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <v>1</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>3</v>
-      </c>
-      <c r="E46">
-        <v>0</v>
-      </c>
-      <c r="F46">
-        <v>1</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>2</v>
-      </c>
-      <c r="I46">
-        <v>1</v>
-      </c>
-      <c r="J46">
-        <v>2</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46">
-        <v>2</v>
-      </c>
-      <c r="N46">
-        <v>0</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <v>0</v>
-      </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47">
-        <v>1</v>
-      </c>
-      <c r="N47">
-        <v>1</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48">
-        <v>1</v>
-      </c>
-      <c r="C48">
-        <v>4</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-      <c r="H48">
-        <v>2</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48">
-        <v>1</v>
-      </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48">
         <v>10</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P48">
+    <sortCondition ref="A1:A48"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
